--- a/실적/실적_['아모레퍼시픽'].xlsx
+++ b/실적/실적_['아모레퍼시픽'].xlsx
@@ -1,43 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_project\tele_bot\실적\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5C0D07-70E5-4B9C-93BD-BB933E305726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>기업</t>
+  </si>
+  <si>
+    <t>항목</t>
+  </si>
+  <si>
+    <t>2021.1Q</t>
+  </si>
+  <si>
+    <t>2021.2Q</t>
+  </si>
+  <si>
+    <t>2021.3Q</t>
+  </si>
+  <si>
+    <t>2021.4Q</t>
+  </si>
+  <si>
+    <t>2022.1Q</t>
+  </si>
+  <si>
+    <t>2022.2Q</t>
+  </si>
+  <si>
+    <t>2022.3Q</t>
+  </si>
+  <si>
+    <t>2022.4Q</t>
+  </si>
+  <si>
+    <t>2023.1Q</t>
+  </si>
+  <si>
+    <t>2023.2Q</t>
+  </si>
+  <si>
+    <t>2023.3Q</t>
+  </si>
+  <si>
+    <t>2023.4Q</t>
+  </si>
+  <si>
+    <t>2024.1Q</t>
+  </si>
+  <si>
+    <t>2024.2Q</t>
+  </si>
+  <si>
+    <t>2024.3Q</t>
+  </si>
+  <si>
+    <t>2024.4Q</t>
+  </si>
+  <si>
+    <t>2025.1Q</t>
+  </si>
+  <si>
+    <t>아모레퍼시픽</t>
+  </si>
+  <si>
+    <t>매출액</t>
+  </si>
+  <si>
+    <t>영업이익</t>
+  </si>
+  <si>
+    <t>OPM</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,115 +145,1266 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>매출액</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2021.1Q</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021.2Q</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021.3Q</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021.4Q</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022.1Q</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022.2Q</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022.3Q</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022.4Q</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023.1Q</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023.2Q</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023.3Q</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023.4Q</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024.1Q</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024.2Q</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024.3Q</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2024.4Q</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2025.1Q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>12527.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13247.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11650.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9457</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9364</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10877.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9137</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9454</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8888</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9114.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9048</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9772</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10916.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10675.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD39-4CED-91D4-8A48F4E3E4E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1615941199"/>
+        <c:axId val="1615936879"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OPM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2021.1Q</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021.2Q</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021.3Q</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021.4Q</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022.1Q</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022.2Q</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022.3Q</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022.4Q</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023.1Q</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023.2Q</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023.3Q</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023.4Q</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024.1Q</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2024.2Q</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024.3Q</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2024.4Q</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2025.1Q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$S$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD39-4CED-91D4-8A48F4E3E4E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1615969999"/>
+        <c:axId val="1615988719"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1615941199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615936879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1615936879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615941199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1615988719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615969999"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1615969999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1615988719"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB2A044-3883-64B7-7547-40FCB21A738A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,301 +1691,377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>기업</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>항목</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2021.1Q</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2021.2Q</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2021.3Q</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2021.4Q</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2022.1Q</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2022.2Q</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2022.3Q</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2022.4Q</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2023.1Q</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2023.2Q</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2023.3Q</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2023.4Q</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2024.1Q</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2024.2Q</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2024.3Q</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2024.4Q</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>2025.1Q</t>
-        </is>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>아모레퍼시픽</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>매출액</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
         <v>12527.8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>11767</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>11089</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>13247.2</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>11650.3</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>9457</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>9364</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>10877.7</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>9137</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>9454</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>8888</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>9261</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>9114.5</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>9048</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>9772</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>10916.5</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>10675.1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>영업이익</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
         <v>1762.4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>912</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>503</v>
       </c>
-      <c r="F3" t="n">
-        <v>256.6</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>256.60000000000002</v>
+      </c>
+      <c r="G3">
         <v>1580</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>-195</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>188</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>569</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>643.5</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>173</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>206.5</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>726.8</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>42</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>652</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>784.2</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>1177.3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>OPM</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
         <v>14.1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>7.8</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>4.5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1.9</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>13.6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>-2.1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>5.2</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>7</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>0.6</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>1.9</v>
       </c>
-      <c r="N4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="N4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O4">
         <v>8</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>0.5</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>6.7</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>7.2</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G5" s="3">
+        <f>(G2-C2)/C2</f>
+        <v>-7.0044221651048066E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" ref="H5:S5" si="0">(H2-D2)/D2</f>
+        <v>-0.19631171921475313</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.15555956353142755</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.17886798719729452</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.21572835034290958</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.17225335730147E-4</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="0"/>
+        <v>-5.0832977360102519E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.14862516892357766</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.4625150487030756E-3</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="0"/>
+        <v>-4.2944785276073622E-2</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="0"/>
+        <v>9.9459945994599466E-2</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17876039304610733</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17122167974107197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G6" s="3">
+        <f>(G3-C3)/C3</f>
+        <v>-0.10349523377212896</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" ref="H6" si="1">(H3-D3)/D3</f>
+        <v>-1.2138157894736843</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" ref="I6" si="2">(I3-E3)/E3</f>
+        <v>-0.62624254473161034</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" ref="J6" si="3">(J3-F3)/F3</f>
+        <v>1.2174590802805922</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" ref="K6" si="4">(K3-G3)/G3</f>
+        <v>-0.59272151898734182</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" ref="L6" si="5">(L3-H3)/H3</f>
+        <v>-1.3025641025641026</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" ref="M6" si="6">(M3-I3)/I3</f>
+        <v>-7.9787234042553196E-2</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" ref="N6" si="7">(N3-J3)/J3</f>
+        <v>-0.63708260105448156</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" ref="O6" si="8">(O3-K3)/K3</f>
+        <v>0.12944832944832937</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" ref="P6" si="9">(P3-L3)/L3</f>
+        <v>-0.28813559322033899</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" ref="Q6" si="10">(Q3-M3)/M3</f>
+        <v>2.7687861271676302</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" ref="R6" si="11">(R3-N3)/N3</f>
+        <v>2.7975786924939468</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" ref="S6" si="12">(S3-O3)/O3</f>
+        <v>0.61984039625756748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S13" s="4">
+        <f>15000000</f>
+        <v>15000000</v>
+      </c>
+      <c r="T13">
+        <f>S13/130500</f>
+        <v>114.94252873563218</v>
+      </c>
+      <c r="U13">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A4"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>